--- a/doc/task06/Kopie von ProductBacklog.xlsx
+++ b/doc/task06/Kopie von ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F500E4EF-C5D7-4149-BBBD-2A522D905ACB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E01D47-7E6F-4BE2-BA7B-4CAF9660FC81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="987" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="19">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF3D15-4E8C-47CB-B190-4A3D8712E2ED}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="51" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" zoomScale="51" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1819,10 @@
       <c r="K7" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="26">
+        <f>SUM(A5:A7)</f>
+        <v>12.9</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="70" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22">

--- a/doc/task06/Kopie von ProductBacklog.xlsx
+++ b/doc/task06/Kopie von ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E01D47-7E6F-4BE2-BA7B-4CAF9660FC81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B852E41-3807-41DB-A10F-E16032817BD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="987" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -217,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -260,6 +260,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -275,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -294,6 +300,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -489,11 +510,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -510,10 +542,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,13 +557,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -540,19 +572,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -561,25 +593,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,398 +614,4050 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="406">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1325,8 +5003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A2" zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1554,13 +5232,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="387" priority="1" operator="lessThan">
       <formula>210</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="2" operator="equal">
       <formula>210</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="385" priority="3" operator="greaterThan">
       <formula>210</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1577,8 +5255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF3D15-4E8C-47CB-B190-4A3D8712E2ED}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="51" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="83" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1588,7 +5266,7 @@
     <col min="4" max="16384" width="17.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +5300,7 @@
       <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="31" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1649,14 +5327,14 @@
         <v>2</v>
       </c>
       <c r="H2" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="84" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
@@ -1681,16 +5359,16 @@
         <v>2</v>
       </c>
       <c r="H3" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:12" ht="98" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="98.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>3.3</v>
       </c>
@@ -1713,16 +5391,16 @@
         <v>2</v>
       </c>
       <c r="H4" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="30">
         <f>SUM(H2:H4)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.3">
@@ -1748,14 +5426,14 @@
         <v>2</v>
       </c>
       <c r="H5" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="70" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
@@ -1780,16 +5458,16 @@
         <v>2</v>
       </c>
       <c r="H6" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="84" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>4.4000000000000004</v>
       </c>
@@ -1812,19 +5490,16 @@
         <v>3</v>
       </c>
       <c r="H7" s="26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="26">
-        <f>SUM(A5:A7)</f>
-        <v>12.9</v>
-      </c>
+      <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" ht="70" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>4.3</v>
       </c>
@@ -1846,11 +5521,18 @@
       <c r="G8" s="26">
         <v>2</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="26">
+        <v>3</v>
+      </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="28"/>
+      <c r="K8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="30">
+        <f>SUM(H5:H8)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
@@ -1882,7 +5564,7 @@
       <c r="K9" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
@@ -1914,7 +5596,7 @@
       <c r="K10" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="30"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="70" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
@@ -1946,7 +5628,7 @@
       <c r="K11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="30"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
@@ -1978,7 +5660,7 @@
       <c r="K12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="30"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
@@ -2010,15 +5692,15 @@
       <c r="K13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <f>SUM(A9:A13)</f>
         <v>41.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="2">
-        <f>SUM(H2:H13)</f>
-        <v>58</v>
+    <row r="14" spans="1:12" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L14" s="33">
+        <f>SUM(L2:L13)</f>
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
@@ -2027,28 +5709,71 @@
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="lessThan">
+      <formula>35</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="43" priority="23" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="21" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="greaterThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="19" operator="equal">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="greaterThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="greaterThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
-      <formula>35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="G2:G13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>45</formula>
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2057,6 +5782,96 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="greaterThan" id="{635E2CEE-ED27-427B-AD79-41DFB49C9180}">
+            <xm:f>Product_Backlog!$E$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" operator="lessThan" id="{441D3EDF-B8E2-4BA6-B9BE-7A4A737D8032}">
+            <xm:f>Product_Backlog!$E$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{8D1A8E41-E55A-4D5C-BA18-5E57E8713084}">
+            <xm:f>Product_Backlog!$E$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="14" operator="greaterThan" id="{94C6A8E7-1440-4949-88E4-D44DE9A5ED4D}">
+            <xm:f>Product_Backlog!$E$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="13" operator="lessThan" id="{002BDAF6-3F2F-4A7F-989E-80A07A30C979}">
+            <xm:f>Product_Backlog!$E$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{BCFA70E4-82A5-4C26-A7AA-9C79C4CEDDC1}">
+            <xm:f>Product_Backlog!$E$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2252,22 +6067,22 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="1" operator="equal">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="383" priority="2" operator="lessThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="382" priority="3" operator="greaterThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="381" priority="4" operator="lessThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="380" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="379" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2472,22 +6287,22 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="1" operator="equal">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="377" priority="2" operator="lessThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="376" priority="3" operator="greaterThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="375" priority="4" operator="lessThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="374" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="373" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
